--- a/REGULAR/OJT/BAYOT, EMILIANA.xlsx
+++ b/REGULAR/OJT/BAYOT, EMILIANA.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\OJT\NEW DONE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\OJT\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="588" uniqueCount="356">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="589" uniqueCount="356">
   <si>
     <t>PERIOD</t>
   </si>
@@ -1973,7 +1973,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2016,7 +2016,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2080,7 +2080,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2140,7 +2140,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2206,7 +2206,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2269,7 +2269,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2367,7 +2367,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2426,7 +2426,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2491,7 +2491,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2534,7 +2534,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2609,7 +2609,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2795,7 +2795,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2861,7 +2861,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2919,7 +2919,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2985,7 +2985,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3041,7 +3041,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3116,7 +3116,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3159,7 +3159,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3225,7 +3225,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3281,7 +3281,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3379,7 +3379,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3442,7 +3442,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3508,7 +3508,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K556" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K557" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
   <tableColumns count="11">
     <tableColumn id="1" name="PERIOD" dataDxfId="20"/>
     <tableColumn id="2" name="PARTICULARS" dataDxfId="19"/>
@@ -3886,12 +3886,12 @@
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K556"/>
+  <dimension ref="A2:K557"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1800" topLeftCell="A495" activePane="bottomLeft"/>
+      <pane ySplit="1800" topLeftCell="A492" activePane="bottomLeft"/>
       <selection activeCell="I4" sqref="I4"/>
-      <selection pane="bottomLeft" activeCell="J506" sqref="J506"/>
+      <selection pane="bottomLeft" activeCell="K506" sqref="K506"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4048,7 +4048,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>66.866000000000213</v>
+        <v>68.116000000000213</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -4058,7 +4058,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>178.5</v>
+        <v>178.75</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -14949,13 +14949,15 @@
       <c r="B505" s="20" t="s">
         <v>118</v>
       </c>
-      <c r="C505" s="13"/>
+      <c r="C505" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D505" s="39"/>
       <c r="E505" s="9"/>
       <c r="F505" s="20"/>
-      <c r="G505" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G505" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H505" s="39"/>
       <c r="I505" s="9"/>
@@ -14967,10 +14969,10 @@
       </c>
     </row>
     <row r="506" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A506" s="40">
-        <v>45108</v>
-      </c>
-      <c r="B506" s="20"/>
+      <c r="A506" s="40"/>
+      <c r="B506" s="20" t="s">
+        <v>118</v>
+      </c>
       <c r="C506" s="13"/>
       <c r="D506" s="39"/>
       <c r="E506" s="9"/>
@@ -14979,14 +14981,18 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H506" s="39"/>
+      <c r="H506" s="39">
+        <v>1</v>
+      </c>
       <c r="I506" s="9"/>
       <c r="J506" s="11"/>
-      <c r="K506" s="20"/>
+      <c r="K506" s="49">
+        <v>45106</v>
+      </c>
     </row>
     <row r="507" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A507" s="40">
-        <v>45139</v>
+        <v>45108</v>
       </c>
       <c r="B507" s="20"/>
       <c r="C507" s="13"/>
@@ -15004,7 +15010,7 @@
     </row>
     <row r="508" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A508" s="40">
-        <v>45170</v>
+        <v>45139</v>
       </c>
       <c r="B508" s="20"/>
       <c r="C508" s="13"/>
@@ -15022,7 +15028,7 @@
     </row>
     <row r="509" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A509" s="40">
-        <v>45200</v>
+        <v>45170</v>
       </c>
       <c r="B509" s="20"/>
       <c r="C509" s="13"/>
@@ -15040,7 +15046,7 @@
     </row>
     <row r="510" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A510" s="40">
-        <v>45231</v>
+        <v>45200</v>
       </c>
       <c r="B510" s="20"/>
       <c r="C510" s="13"/>
@@ -15058,7 +15064,7 @@
     </row>
     <row r="511" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A511" s="40">
-        <v>45261</v>
+        <v>45231</v>
       </c>
       <c r="B511" s="20"/>
       <c r="C511" s="13"/>
@@ -15076,7 +15082,7 @@
     </row>
     <row r="512" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A512" s="40">
-        <v>45292</v>
+        <v>45261</v>
       </c>
       <c r="B512" s="20"/>
       <c r="C512" s="13"/>
@@ -15094,7 +15100,7 @@
     </row>
     <row r="513" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A513" s="40">
-        <v>45323</v>
+        <v>45292</v>
       </c>
       <c r="B513" s="20"/>
       <c r="C513" s="13"/>
@@ -15112,7 +15118,7 @@
     </row>
     <row r="514" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A514" s="40">
-        <v>45352</v>
+        <v>45323</v>
       </c>
       <c r="B514" s="20"/>
       <c r="C514" s="13"/>
@@ -15130,7 +15136,7 @@
     </row>
     <row r="515" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A515" s="40">
-        <v>45383</v>
+        <v>45352</v>
       </c>
       <c r="B515" s="20"/>
       <c r="C515" s="13"/>
@@ -15148,7 +15154,7 @@
     </row>
     <row r="516" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A516" s="40">
-        <v>45413</v>
+        <v>45383</v>
       </c>
       <c r="B516" s="20"/>
       <c r="C516" s="13"/>
@@ -15166,7 +15172,7 @@
     </row>
     <row r="517" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A517" s="40">
-        <v>45444</v>
+        <v>45413</v>
       </c>
       <c r="B517" s="20"/>
       <c r="C517" s="13"/>
@@ -15184,7 +15190,7 @@
     </row>
     <row r="518" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A518" s="40">
-        <v>45474</v>
+        <v>45444</v>
       </c>
       <c r="B518" s="20"/>
       <c r="C518" s="13"/>
@@ -15202,7 +15208,7 @@
     </row>
     <row r="519" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A519" s="40">
-        <v>45505</v>
+        <v>45474</v>
       </c>
       <c r="B519" s="20"/>
       <c r="C519" s="13"/>
@@ -15220,7 +15226,7 @@
     </row>
     <row r="520" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A520" s="40">
-        <v>45536</v>
+        <v>45505</v>
       </c>
       <c r="B520" s="20"/>
       <c r="C520" s="13"/>
@@ -15238,7 +15244,7 @@
     </row>
     <row r="521" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A521" s="40">
-        <v>45566</v>
+        <v>45536</v>
       </c>
       <c r="B521" s="20"/>
       <c r="C521" s="13"/>
@@ -15256,7 +15262,7 @@
     </row>
     <row r="522" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A522" s="40">
-        <v>45597</v>
+        <v>45566</v>
       </c>
       <c r="B522" s="20"/>
       <c r="C522" s="13"/>
@@ -15274,7 +15280,7 @@
     </row>
     <row r="523" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A523" s="40">
-        <v>45627</v>
+        <v>45597</v>
       </c>
       <c r="B523" s="20"/>
       <c r="C523" s="13"/>
@@ -15292,7 +15298,7 @@
     </row>
     <row r="524" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A524" s="40">
-        <v>45658</v>
+        <v>45627</v>
       </c>
       <c r="B524" s="20"/>
       <c r="C524" s="13"/>
@@ -15310,7 +15316,7 @@
     </row>
     <row r="525" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A525" s="40">
-        <v>45689</v>
+        <v>45658</v>
       </c>
       <c r="B525" s="20"/>
       <c r="C525" s="13"/>
@@ -15328,7 +15334,7 @@
     </row>
     <row r="526" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A526" s="40">
-        <v>45717</v>
+        <v>45689</v>
       </c>
       <c r="B526" s="20"/>
       <c r="C526" s="13"/>
@@ -15346,7 +15352,7 @@
     </row>
     <row r="527" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A527" s="40">
-        <v>45748</v>
+        <v>45717</v>
       </c>
       <c r="B527" s="20"/>
       <c r="C527" s="13"/>
@@ -15364,7 +15370,7 @@
     </row>
     <row r="528" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A528" s="40">
-        <v>45778</v>
+        <v>45748</v>
       </c>
       <c r="B528" s="20"/>
       <c r="C528" s="13"/>
@@ -15382,7 +15388,7 @@
     </row>
     <row r="529" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A529" s="40">
-        <v>45809</v>
+        <v>45778</v>
       </c>
       <c r="B529" s="20"/>
       <c r="C529" s="13"/>
@@ -15400,7 +15406,7 @@
     </row>
     <row r="530" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A530" s="40">
-        <v>45839</v>
+        <v>45809</v>
       </c>
       <c r="B530" s="20"/>
       <c r="C530" s="13"/>
@@ -15418,7 +15424,7 @@
     </row>
     <row r="531" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A531" s="40">
-        <v>45870</v>
+        <v>45839</v>
       </c>
       <c r="B531" s="20"/>
       <c r="C531" s="13"/>
@@ -15436,7 +15442,7 @@
     </row>
     <row r="532" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A532" s="40">
-        <v>45901</v>
+        <v>45870</v>
       </c>
       <c r="B532" s="20"/>
       <c r="C532" s="13"/>
@@ -15454,7 +15460,7 @@
     </row>
     <row r="533" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A533" s="40">
-        <v>45931</v>
+        <v>45901</v>
       </c>
       <c r="B533" s="20"/>
       <c r="C533" s="13"/>
@@ -15472,7 +15478,7 @@
     </row>
     <row r="534" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A534" s="40">
-        <v>45962</v>
+        <v>45931</v>
       </c>
       <c r="B534" s="20"/>
       <c r="C534" s="13"/>
@@ -15490,43 +15496,43 @@
     </row>
     <row r="535" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A535" s="40">
-        <v>45992</v>
-      </c>
-      <c r="B535" s="15"/>
-      <c r="C535" s="41"/>
-      <c r="D535" s="42"/>
+        <v>45962</v>
+      </c>
+      <c r="B535" s="20"/>
+      <c r="C535" s="13"/>
+      <c r="D535" s="39"/>
       <c r="E535" s="9"/>
-      <c r="F535" s="15"/>
-      <c r="G535" s="41" t="str">
+      <c r="F535" s="20"/>
+      <c r="G535" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H535" s="42"/>
+      <c r="H535" s="39"/>
       <c r="I535" s="9"/>
-      <c r="J535" s="12"/>
-      <c r="K535" s="15"/>
+      <c r="J535" s="11"/>
+      <c r="K535" s="20"/>
     </row>
     <row r="536" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A536" s="40">
-        <v>46023</v>
-      </c>
-      <c r="B536" s="20"/>
-      <c r="C536" s="13"/>
-      <c r="D536" s="39"/>
+        <v>45992</v>
+      </c>
+      <c r="B536" s="15"/>
+      <c r="C536" s="41"/>
+      <c r="D536" s="42"/>
       <c r="E536" s="9"/>
-      <c r="F536" s="20"/>
-      <c r="G536" s="13" t="str">
+      <c r="F536" s="15"/>
+      <c r="G536" s="41" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H536" s="39"/>
+      <c r="H536" s="42"/>
       <c r="I536" s="9"/>
-      <c r="J536" s="11"/>
-      <c r="K536" s="20"/>
+      <c r="J536" s="12"/>
+      <c r="K536" s="15"/>
     </row>
     <row r="537" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A537" s="40">
-        <v>46054</v>
+        <v>46023</v>
       </c>
       <c r="B537" s="20"/>
       <c r="C537" s="13"/>
@@ -15544,7 +15550,7 @@
     </row>
     <row r="538" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A538" s="40">
-        <v>46082</v>
+        <v>46054</v>
       </c>
       <c r="B538" s="20"/>
       <c r="C538" s="13"/>
@@ -15562,7 +15568,7 @@
     </row>
     <row r="539" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A539" s="40">
-        <v>46113</v>
+        <v>46082</v>
       </c>
       <c r="B539" s="20"/>
       <c r="C539" s="13"/>
@@ -15580,7 +15586,7 @@
     </row>
     <row r="540" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A540" s="40">
-        <v>46143</v>
+        <v>46113</v>
       </c>
       <c r="B540" s="20"/>
       <c r="C540" s="13"/>
@@ -15598,7 +15604,7 @@
     </row>
     <row r="541" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A541" s="40">
-        <v>46174</v>
+        <v>46143</v>
       </c>
       <c r="B541" s="20"/>
       <c r="C541" s="13"/>
@@ -15616,7 +15622,7 @@
     </row>
     <row r="542" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A542" s="40">
-        <v>46204</v>
+        <v>46174</v>
       </c>
       <c r="B542" s="20"/>
       <c r="C542" s="13"/>
@@ -15634,7 +15640,7 @@
     </row>
     <row r="543" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A543" s="40">
-        <v>46235</v>
+        <v>46204</v>
       </c>
       <c r="B543" s="20"/>
       <c r="C543" s="13"/>
@@ -15652,7 +15658,7 @@
     </row>
     <row r="544" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A544" s="40">
-        <v>46266</v>
+        <v>46235</v>
       </c>
       <c r="B544" s="20"/>
       <c r="C544" s="13"/>
@@ -15670,7 +15676,7 @@
     </row>
     <row r="545" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A545" s="40">
-        <v>46296</v>
+        <v>46266</v>
       </c>
       <c r="B545" s="20"/>
       <c r="C545" s="13"/>
@@ -15688,7 +15694,7 @@
     </row>
     <row r="546" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A546" s="40">
-        <v>46327</v>
+        <v>46296</v>
       </c>
       <c r="B546" s="20"/>
       <c r="C546" s="13"/>
@@ -15706,7 +15712,7 @@
     </row>
     <row r="547" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A547" s="40">
-        <v>46357</v>
+        <v>46327</v>
       </c>
       <c r="B547" s="20"/>
       <c r="C547" s="13"/>
@@ -15724,7 +15730,7 @@
     </row>
     <row r="548" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A548" s="40">
-        <v>46388</v>
+        <v>46357</v>
       </c>
       <c r="B548" s="20"/>
       <c r="C548" s="13"/>
@@ -15742,7 +15748,7 @@
     </row>
     <row r="549" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A549" s="40">
-        <v>46419</v>
+        <v>46388</v>
       </c>
       <c r="B549" s="20"/>
       <c r="C549" s="13"/>
@@ -15760,7 +15766,7 @@
     </row>
     <row r="550" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A550" s="40">
-        <v>46447</v>
+        <v>46419</v>
       </c>
       <c r="B550" s="20"/>
       <c r="C550" s="13"/>
@@ -15778,7 +15784,7 @@
     </row>
     <row r="551" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A551" s="40">
-        <v>46478</v>
+        <v>46447</v>
       </c>
       <c r="B551" s="20"/>
       <c r="C551" s="13"/>
@@ -15796,7 +15802,7 @@
     </row>
     <row r="552" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A552" s="40">
-        <v>46508</v>
+        <v>46478</v>
       </c>
       <c r="B552" s="20"/>
       <c r="C552" s="13"/>
@@ -15814,7 +15820,7 @@
     </row>
     <row r="553" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A553" s="40">
-        <v>46539</v>
+        <v>46508</v>
       </c>
       <c r="B553" s="20"/>
       <c r="C553" s="13"/>
@@ -15832,7 +15838,7 @@
     </row>
     <row r="554" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A554" s="40">
-        <v>46569</v>
+        <v>46539</v>
       </c>
       <c r="B554" s="20"/>
       <c r="C554" s="13"/>
@@ -15850,7 +15856,7 @@
     </row>
     <row r="555" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A555" s="40">
-        <v>46600</v>
+        <v>46569</v>
       </c>
       <c r="B555" s="20"/>
       <c r="C555" s="13"/>
@@ -15868,7 +15874,7 @@
     </row>
     <row r="556" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A556" s="40">
-        <v>46631</v>
+        <v>46600</v>
       </c>
       <c r="B556" s="20"/>
       <c r="C556" s="13"/>
@@ -15883,6 +15889,24 @@
       <c r="I556" s="9"/>
       <c r="J556" s="11"/>
       <c r="K556" s="20"/>
+    </row>
+    <row r="557" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A557" s="40">
+        <v>46631</v>
+      </c>
+      <c r="B557" s="20"/>
+      <c r="C557" s="13"/>
+      <c r="D557" s="39"/>
+      <c r="E557" s="9"/>
+      <c r="F557" s="20"/>
+      <c r="G557" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H557" s="39"/>
+      <c r="I557" s="9"/>
+      <c r="J557" s="11"/>
+      <c r="K557" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="11">
